--- a/updated_product_dataset.xlsx
+++ b/updated_product_dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaime\Downloads\product_dataset-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaime\Downloads\product_dataset-mainpt-mainpt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705213BC-169E-445C-9A1D-F94F1B2FE09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E9ABFA9-57CC-4510-BC62-CE30674250CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,21 +25,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
-    <t>Emotion</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>Neutral</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
     <t>ótimo pad amo ddr não quero pad de metal funciona ótimo stepmania</t>
   </si>
   <si>
@@ -83,6 +68,21 @@
   </si>
   <si>
     <t>Sony cyber camara fazendo veio carregador descanso bem não veio memory stick cabo usb descanso camara funciona bem doente tchau aguian fron vendedorleia resenha completa</t>
+  </si>
+  <si>
+    <t>Emoção</t>
+  </si>
+  <si>
+    <t>Texto</t>
+  </si>
+  <si>
+    <t>Positiva</t>
+  </si>
+  <si>
+    <t>Negativa</t>
+  </si>
+  <si>
+    <t>Neutra</t>
   </si>
 </sst>
 </file>
@@ -960,7 +960,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -972,145 +972,145 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2"/>
     </row>
